--- a/data/trans_bre/P15_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_3-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,81</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>3,09</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>222,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-38,25%</t>
+          <t>-22,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>25,84%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 12,81</t>
+          <t>-3,28; 17,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 11,02</t>
+          <t>-10,43; 15,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 3,54</t>
+          <t>-24,9; 12,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 29,75</t>
+          <t>-16,1; 25,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,45; 434,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,12; 419,56</t>
+          <t>-99,79; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-69,76; 23,27</t>
+          <t>-70,34; 130,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 172,61</t>
+          <t>-44,03; 194,26</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,03%</t>
+          <t>-45,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>-44,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,1%</t>
+          <t>-22,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>-10,13%</t>
         </is>
       </c>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 8,1</t>
+          <t>-16,1; 5,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,53</t>
+          <t>-7,64; 4,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 12,41</t>
+          <t>-19,6; 10,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 16,69</t>
+          <t>-25,65; 17,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,38; 305,03</t>
+          <t>-91,14; 284,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,75; 106,19</t>
+          <t>-69,69; 113,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 89,07</t>
+          <t>-55,7; 102,65</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>10,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,61</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>147,58%</t>
+          <t>215,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>189,2%</t>
+          <t>391,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 16,59</t>
+          <t>1,71; 20,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 16,85</t>
+          <t>3,75; 20,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 20,09</t>
+          <t>-12,13; 15,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 20,83</t>
+          <t>-15,2; 16,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,51; 571,88</t>
+          <t>-1,37; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,1; 729,87</t>
+          <t>11,82; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 220,14</t>
+          <t>-40,89; 110,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 111,95</t>
+          <t>-35,63; 71,43</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>-2,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,42%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,9%</t>
+          <t>-31,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 8,04</t>
+          <t>-10,59; 8,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 8,13</t>
+          <t>-5,5; 8,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 6,27</t>
+          <t>-19,63; 3,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 10,91</t>
+          <t>-11,77; 13,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,16; 102,58</t>
+          <t>-59,21; 119,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 321,46</t>
+          <t>-63,1; 382,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,42; 38,45</t>
+          <t>-62,58; 22,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 42,93</t>
+          <t>-28,44; 49,91</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>51,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-16,59%</t>
+          <t>-31,86%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>-3,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>16,83%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 8,38</t>
+          <t>-5,69; 13,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 6,23</t>
+          <t>-10,58; 7,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 14,74</t>
+          <t>-15,1; 13,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 16,6</t>
+          <t>-10,56; 22,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-60,05; 206,63</t>
+          <t>-72,06; 650,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-68,69; 118,85</t>
+          <t>-85,54; 295,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 104,31</t>
+          <t>-57,2; 89,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 63,26</t>
+          <t>-27,18; 88,69</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,76</t>
+          <t>-12,97</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-26,77%</t>
+          <t>-24,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-21,33%</t>
+          <t>-22,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-25,5%</t>
+          <t>-37,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-40,4%</t>
+          <t>-39,23%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 5,39</t>
+          <t>-11,28; 6,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 5,53</t>
+          <t>-10,1; 3,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 5,09</t>
+          <t>-21,72; 8,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 0,76</t>
+          <t>-34,39; 5,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,17; 149,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-81,88; 137,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,63; 47,53</t>
+          <t>-83,24; 154,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,23; 4,19</t>
+          <t>-74,24; 29,69</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>38,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>-15,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,46</t>
+          <t>-1,19; 6,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,99</t>
+          <t>-0,84; 6,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 4,07</t>
+          <t>-8,86; 2,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 7,81</t>
+          <t>-6,71; 8,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 84,04</t>
+          <t>-13,51; 126,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 102,74</t>
+          <t>-15,01; 184,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 23,45</t>
+          <t>-35,32; 14,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 30,46</t>
+          <t>-19,36; 31,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_3-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,81</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,33</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,41</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>222,21%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>48,64%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-22,9%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>25,84%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.808488361631357</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.830816430719136</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.843965021378536</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.751807703387322</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2.222145386400985</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.074531475993783</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1340149933817961</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2721044224028349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,28; 17,59</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,43; 15,49</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-24,9; 12,4</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-16,1; 25,33</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-99,79; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-70,34; 130,5</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-44,03; 194,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.275335236635589</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.382976287187125</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-22.66742889519444</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-16.62786703100657</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.8453816678792958</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6931967378209601</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4498184885724312</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.59388896774175</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>26.86274192077389</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.66827260708243</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>24.78705729716927</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.755563885564737</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.808618449035311</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,15</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,26</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,03</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-45,21%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-44,04%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-22,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-10,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-16,1; 5,17</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,64; 4,11</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,6; 10,97</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-25,65; 17,6</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-91,14; 284,66</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-69,69; 113,34</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-55,7; 102,65</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.154482092714227</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.401904217395556</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-7.028698039380535</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-6.758578591201836</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.452055217253254</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.4668101979944325</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3277672200843895</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2046615317470177</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10,68</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>215,91%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>391,45%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,56%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-16.0998373793501</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.171287296180438</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-24.01143671421834</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-29.64592829716796</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9113919055088243</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.7352692506817994</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.605802154519371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 20,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 20,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,13; 15,17</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-15,2; 16,51</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>11,82; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-40,89; 110,29</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-35,63; 71,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.171452667826298</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.483358725121268</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.871379610116628</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.99081144582429</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.846596685963725</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.763988384745903</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7406439113016554</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +817,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-7,68</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-2,89%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>27,51%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-31,4%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,11%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>10.68040681643385</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>11.3256002508854</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.809478257731494</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.128434702820533</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>2.159145669510761</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>3.891816299448061</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1942142717665804</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.137721248073794</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,59; 8,75</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,5; 8,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-19,63; 3,18</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,77; 13,3</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-59,21; 119,02</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-63,1; 382,83</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-62,58; 22,73</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-28,44; 49,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.705816318141256</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.409020381438052</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.08151773112625</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-12.41840367707243</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.01374368069708562</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.1302999883562282</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3869606197549541</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3025936595478665</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.35417894800326</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.56761485341334</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.58797490866838</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18.2845915731877</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.245592103294685</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.8592662616649165</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,7</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>51,62%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-31,86%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-3,93%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>16,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; 13,75</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,58; 7,35</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-15,1; 13,86</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-10,56; 22,52</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-72,06; 650,72</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-85,54; 295,8</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-57,2; 89,64</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-27,18; 88,69</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.3714542534998991</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.687301526993653</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-9.278488632568003</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.7425601023767603</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.02890782071677615</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.3010461596625222</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.3629514301424562</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.02180784921824664</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,2</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-12,97</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-24,02%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-22,55%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-37,28%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-39,23%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-10.58991250646038</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.358540181646413</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-21.75788399239707</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-12.08074220167301</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.5921226333314813</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6451270347409955</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.659516617108462</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3013954693821272</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-11,28; 6,15</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-10,1; 3,87</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-21,72; 8,16</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-34,39; 5,0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-83,24; 154,7</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-74,24; 29,69</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.753509819094159</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.974999416654676</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.891691053953852</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.61156745172529</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.190235930155077</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.721716076140213</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1326386034711068</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5140035242432636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1013,289 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,26</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>38,25%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>57,65%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-15,32%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>3.266970492755017</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.979077754293561</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.7636992919665575</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>4.936868826405044</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.5161831242493883</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.3467931142670603</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.03779826187402491</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.146912794223464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 6,9</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 6,75</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-8,86; 2,69</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 8,33</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-13,51; 126,46</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-15,01; 184,86</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-35,32; 14,49</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-19,36; 31,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-5.693256221132327</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-11.36355397511891</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-13.74877701745408</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-11.48036503836691</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.720630035488906</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.8637490323904075</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.5393139095302935</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.2897544549073962</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>13.75121353129171</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.973243099960112</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>16.0229188186631</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>22.16534139976378</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>6.507168898514201</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>2.721973503670897</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.037724022001008</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.8656604557354707</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-1.267838014674719</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.2700439138393986</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-7.278355036093975</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-14.36557476721999</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.2402090417065058</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.1245099829222105</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.4267564565698547</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.4426797196685396</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-11.27543685208713</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-8.55927351955927</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-23.16674486579441</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-35.36182074113577</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="n">
+        <v>-0.8541783022711235</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.7798580303235226</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>6.153673728448843</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>3.909787132832256</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>6.653435483700147</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>3.009641135679963</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="n">
+        <v>1.14721202304196</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.2124748282731602</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.870917890294777</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.400637731558678</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-3.488028765083895</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.3402838758481075</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.3825251104447248</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.7137414676451975</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.1638430416069593</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.0108436108940212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.194554547371534</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.4586366870018834</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-9.266527347534552</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-7.477883662969564</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.1350544054675931</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.1160291562428196</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.3718776875085765</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.2104137865567536</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.895898564477361</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.465265092312499</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.262283075799759</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>7.933057053908434</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.264633502139042</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>2.119840460697085</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.1359952842718197</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.3068631343852985</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1303,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
